--- a/Discounts.xlsx
+++ b/Discounts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allst\Dropbox\ASD\CEDRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Documents\catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B56FC-B0EF-4298-8693-DA015D731DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43EC5F2-B08F-40D1-9724-8E700C1087B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3906D24-74B9-415E-8E68-37F8D22857DC}"/>
+    <workbookView xWindow="-21450" yWindow="3600" windowWidth="18270" windowHeight="11385" xr2:uid="{D3906D24-74B9-415E-8E68-37F8D22857DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -125,8 +125,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,10 +441,10 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>

--- a/Discounts.xlsx
+++ b/Discounts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Documents\catalogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f0cf8ba9d15ebdd/Documentos/catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43EC5F2-B08F-40D1-9724-8E700C1087B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{C43EC5F2-B08F-40D1-9724-8E700C1087B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808EE83B-6B63-4A32-8B9E-2B92DAABA393}"/>
   <bookViews>
-    <workbookView xWindow="-21450" yWindow="3600" windowWidth="18270" windowHeight="11385" xr2:uid="{D3906D24-74B9-415E-8E68-37F8D22857DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3906D24-74B9-415E-8E68-37F8D22857DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Eventuri</t>
   </si>
@@ -56,7 +56,16 @@
     <t>Scorpion</t>
   </si>
   <si>
-    <t>see dropbox</t>
+    <t>Tein</t>
+  </si>
+  <si>
+    <t>By Gama</t>
+  </si>
+  <si>
+    <t>Decrease 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3 </t>
   </si>
 </sst>
 </file>
@@ -98,12 +107,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -114,13 +138,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -139,6 +161,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,74 +464,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF474D7-3B16-4D74-83EE-FBB34D070AB3}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="4">
         <v>50</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="3">
         <v>40</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="3">
         <v>25</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Discounts.xlsx
+++ b/Discounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f0cf8ba9d15ebdd/Documentos/catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{C43EC5F2-B08F-40D1-9724-8E700C1087B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808EE83B-6B63-4A32-8B9E-2B92DAABA393}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C43EC5F2-B08F-40D1-9724-8E700C1087B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4910C0E0-45CC-483C-963B-044E7DF1BAB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3906D24-74B9-415E-8E68-37F8D22857DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Eventuri</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">P3 </t>
+  </si>
+  <si>
+    <t>Mishimoto</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF474D7-3B16-4D74-83EE-FBB34D070AB3}">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +555,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Discounts.xlsx
+++ b/Discounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f0cf8ba9d15ebdd/Documentos/catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C43EC5F2-B08F-40D1-9724-8E700C1087B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4910C0E0-45CC-483C-963B-044E7DF1BAB9}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C43EC5F2-B08F-40D1-9724-8E700C1087B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF485C0-852E-4CE1-B151-26C165C82656}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3906D24-74B9-415E-8E68-37F8D22857DC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3906D24-74B9-415E-8E68-37F8D22857DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF474D7-3B16-4D74-83EE-FBB34D070AB3}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +563,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
